--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\university\term 5\az db\project\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\university\term 5\az db\project\2\2\Library-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5854D04-FC05-4396-BFD7-15EE31B74C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AE2281-3EA9-473D-9852-BB0733A88E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="1800" windowWidth="18000" windowHeight="9360" activeTab="7" xr2:uid="{E4A5B597-1B13-49BD-BC2C-758B64A3650B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E4A5B597-1B13-49BD-BC2C-758B64A3650B}"/>
   </bookViews>
   <sheets>
     <sheet name="Book" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="238">
   <si>
     <t>bookID</t>
   </si>
@@ -1115,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD73C61-EE14-4FCF-9AAD-FA3086E46927}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1130,7 +1130,7 @@
     <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1138,122 +1138,92 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
-        <v>70</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
-        <v>72</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" t="s">
-        <v>76</v>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1261,22 +1231,16 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" t="s">
-        <v>80</v>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1284,22 +1248,16 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" t="s">
-        <v>82</v>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1307,22 +1265,16 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" t="s">
-        <v>84</v>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1330,22 +1282,16 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
       </c>
-      <c r="C10" t="s">
-        <v>86</v>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1353,68 +1299,50 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
-        <v>88</v>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>89</v>
       </c>
-      <c r="C12" t="s">
-        <v>90</v>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>91</v>
       </c>
-      <c r="C13" t="s">
-        <v>92</v>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1422,22 +1350,16 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
       </c>
-      <c r="C14" t="s">
-        <v>94</v>
+      <c r="C14">
+        <v>2</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1445,22 +1367,16 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>95</v>
       </c>
-      <c r="C15" t="s">
-        <v>96</v>
+      <c r="C15">
+        <v>2</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -1468,22 +1384,16 @@
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>97</v>
       </c>
-      <c r="C16" t="s">
-        <v>98</v>
+      <c r="C16">
+        <v>2</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1491,22 +1401,16 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>99</v>
       </c>
-      <c r="C17" t="s">
-        <v>100</v>
+      <c r="C17">
+        <v>2</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -1514,562 +1418,412 @@
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="C18" t="s">
-        <v>102</v>
+      <c r="C18">
+        <v>2</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" t="s">
-        <v>104</v>
+      <c r="C19">
+        <v>2</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>105</v>
       </c>
-      <c r="C20" t="s">
-        <v>106</v>
+      <c r="C20">
+        <v>2</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>107</v>
       </c>
-      <c r="C21" t="s">
-        <v>108</v>
+      <c r="C21">
+        <v>2</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>110</v>
+      <c r="C22">
+        <v>2</v>
       </c>
       <c r="D22">
         <v>7</v>
       </c>
       <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>7</v>
-      </c>
-      <c r="G22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>111</v>
       </c>
-      <c r="C23" t="s">
-        <v>112</v>
+      <c r="C23">
+        <v>2</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
       <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>7</v>
-      </c>
-      <c r="G23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24" t="s">
-        <v>114</v>
+      <c r="C24">
+        <v>3</v>
       </c>
       <c r="D24">
         <v>7</v>
       </c>
       <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>7</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>115</v>
       </c>
-      <c r="C25" t="s">
-        <v>116</v>
+      <c r="C25">
+        <v>3</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
       <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>117</v>
       </c>
-      <c r="C26" t="s">
-        <v>118</v>
+      <c r="C26">
+        <v>3</v>
       </c>
       <c r="D26">
         <v>8</v>
       </c>
       <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
+      <c r="C27">
+        <v>3</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>121</v>
       </c>
-      <c r="C28" t="s">
-        <v>122</v>
+      <c r="C28">
+        <v>3</v>
       </c>
       <c r="D28">
         <v>8</v>
       </c>
       <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>8</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>124</v>
+      <c r="C29">
+        <v>3</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
       <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>125</v>
       </c>
-      <c r="C30" t="s">
-        <v>126</v>
+      <c r="C30">
+        <v>3</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>9</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>127</v>
       </c>
-      <c r="C31" t="s">
-        <v>128</v>
+      <c r="C31">
+        <v>3</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
       <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>9</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>129</v>
       </c>
-      <c r="C32" t="s">
-        <v>130</v>
+      <c r="C32">
+        <v>3</v>
       </c>
       <c r="D32">
         <v>9</v>
       </c>
       <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>9</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>131</v>
       </c>
-      <c r="C33" t="s">
-        <v>132</v>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33">
         <v>10</v>
       </c>
       <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>10</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
       </c>
-      <c r="C34" t="s">
-        <v>134</v>
+      <c r="C34">
+        <v>1</v>
       </c>
       <c r="D34">
         <v>10</v>
       </c>
       <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>135</v>
       </c>
-      <c r="C35" t="s">
-        <v>136</v>
+      <c r="C35">
+        <v>1</v>
       </c>
       <c r="D35">
         <v>10</v>
       </c>
       <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>137</v>
       </c>
-      <c r="C36" t="s">
-        <v>138</v>
+      <c r="C36">
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>139</v>
       </c>
-      <c r="C37" t="s">
-        <v>140</v>
+      <c r="C37">
+        <v>3</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>141</v>
       </c>
-      <c r="C38" t="s">
-        <v>142</v>
+      <c r="C38">
+        <v>3</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>143</v>
       </c>
-      <c r="C39" t="s">
-        <v>144</v>
+      <c r="C39">
+        <v>3</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>145</v>
       </c>
-      <c r="C40" t="s">
-        <v>146</v>
+      <c r="C40">
+        <v>2</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
-        <v>148</v>
+      <c r="C41">
+        <v>2</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
         <v>1</v>
       </c>
     </row>
@@ -2587,346 +2341,470 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3A6BD9-2838-4130-8135-8E8B6DE0070D}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="C1" sqref="C1:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2934,7 +2812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>20</v>
       </c>
@@ -4143,7 +4021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788C06D4-BA3B-4049-BE30-5E15925BFCDD}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\university\term 5\az db\project\2\2\Library-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AE2281-3EA9-473D-9852-BB0733A88E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3272FE37-9014-420C-858A-862E88F8F11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E4A5B597-1B13-49BD-BC2C-758B64A3650B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{E4A5B597-1B13-49BD-BC2C-758B64A3650B}"/>
   </bookViews>
   <sheets>
     <sheet name="Book" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="238">
   <si>
     <t>bookID</t>
   </si>
@@ -1117,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD73C61-EE14-4FCF-9AAD-FA3086E46927}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -1836,7 +1836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580C097D-6BBE-4F8C-B298-733B922EFBB6}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F54A0B-C02C-4EB6-BBD2-D6E92CF7AA70}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2341,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3A6BD9-2838-4130-8135-8E8B6DE0070D}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C41"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -2391,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2402,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -2413,7 +2413,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -2435,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
@@ -2446,7 +2446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>84</v>
@@ -2457,7 +2457,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>86</v>
@@ -2468,7 +2468,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>88</v>
@@ -2490,7 +2490,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>92</v>
@@ -2512,7 +2512,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>96</v>
@@ -2534,7 +2534,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>100</v>
@@ -2556,7 +2556,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>104</v>
@@ -2589,7 +2589,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>110</v>
@@ -2600,7 +2600,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>112</v>
@@ -2611,7 +2611,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>114</v>
@@ -2633,7 +2633,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
         <v>118</v>
@@ -2655,7 +2655,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
         <v>122</v>
@@ -2677,7 +2677,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>126</v>
@@ -2710,7 +2710,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>132</v>
@@ -2732,7 +2732,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>136</v>
@@ -2743,7 +2743,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>138</v>
@@ -2754,7 +2754,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>140</v>
@@ -2776,7 +2776,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
         <v>144</v>
@@ -2787,7 +2787,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>146</v>
@@ -2798,7 +2798,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>148</v>
@@ -2809,15 +2809,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>20</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3713,12 +3708,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68CA6F7-C7F7-4090-BFA9-965503BBB3C4}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
   </cols>
@@ -3759,6 +3756,9 @@
       <c r="B2" t="s">
         <v>149</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -3784,6 +3784,9 @@
       </c>
       <c r="B3" t="s">
         <v>152</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3811,8 +3814,11 @@
       <c r="B4" t="s">
         <v>155</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>41745</v>
@@ -3837,6 +3843,9 @@
       <c r="B5" t="s">
         <v>158</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -3863,6 +3872,9 @@
       <c r="B6" t="s">
         <v>161</v>
       </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -3889,6 +3901,9 @@
       <c r="B7" t="s">
         <v>164</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -3915,8 +3930,11 @@
       <c r="B8" t="s">
         <v>167</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>42163</v>
@@ -3941,6 +3959,9 @@
       <c r="B9" t="s">
         <v>170</v>
       </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -3967,8 +3988,11 @@
       <c r="B10" t="s">
         <v>173</v>
       </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <v>40941</v>
@@ -3992,6 +4016,9 @@
       </c>
       <c r="B11" t="s">
         <v>176</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
       </c>
       <c r="D11">
         <v>1</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\university\term 5\az db\project\2\2\Library-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3272FE37-9014-420C-858A-862E88F8F11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F992202E-C707-476A-AB65-4CFFD11AF525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{E4A5B597-1B13-49BD-BC2C-758B64A3650B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{E4A5B597-1B13-49BD-BC2C-758B64A3650B}"/>
   </bookViews>
   <sheets>
     <sheet name="Book" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="238">
   <si>
     <t>bookID</t>
   </si>
@@ -753,13 +753,16 @@
     <t>adults</t>
   </si>
   <si>
-    <t>branchID</t>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -797,10 +800,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,7 +1121,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection sqref="A1:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1837,7 +1840,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2343,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3A6BD9-2838-4130-8135-8E8B6DE0070D}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2822,10 +2825,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED17FB28-A2ED-444A-8D03-AB1247A6B806}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C1" sqref="C1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2835,129 +2838,96 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>218</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>219</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>220</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>221</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>222</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>223</v>
       </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>224</v>
       </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>225</v>
       </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>226</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>227</v>
       </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="23.25">
-      <c r="B12" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="23.25">
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2969,14 +2939,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBC36CD-2135-4CFD-93D9-706557EA513D}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2986,10 +2956,10 @@
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" t="s">
@@ -3006,11 +2976,17 @@
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3020,11 +2996,17 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3034,11 +3016,17 @@
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3048,11 +3036,17 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3062,11 +3056,17 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3076,11 +3076,17 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3090,11 +3096,17 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3104,11 +3116,17 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3118,11 +3136,17 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3132,11 +3156,17 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3146,11 +3176,17 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3160,11 +3196,17 @@
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3174,11 +3216,17 @@
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3188,11 +3236,17 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3202,501 +3256,717 @@
       <c r="B16">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26">
         <v>9</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>6</v>
       </c>
       <c r="B27">
         <v>9</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>7</v>
       </c>
       <c r="B28">
         <v>8</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>8</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>9</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>11</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>12</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>13</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>14</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>15</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>16</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>17</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>18</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>19</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>20</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>21</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>22</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>23</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>24</v>
       </c>
       <c r="B45">
         <v>8</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>25</v>
       </c>
       <c r="B46">
         <v>8</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>26</v>
       </c>
       <c r="B47">
         <v>8</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>27</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>28</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>29</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>30</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3708,16 +3978,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68CA6F7-C7F7-4090-BFA9-965503BBB3C4}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3733,13 +4003,13 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H1" t="s">
@@ -3762,13 +4032,13 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>42007</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>37259</v>
       </c>
       <c r="H2" t="s">
@@ -3791,13 +4061,13 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>40913</v>
       </c>
       <c r="F3" t="s">
         <v>197</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>37261</v>
       </c>
       <c r="H3" t="s">
@@ -3820,13 +4090,13 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>41745</v>
       </c>
       <c r="F4" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>35536</v>
       </c>
       <c r="H4" t="s">
@@ -3849,13 +4119,13 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>40247</v>
       </c>
       <c r="F5" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>29290</v>
       </c>
       <c r="H5" t="s">
@@ -3878,13 +4148,13 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>42010</v>
       </c>
       <c r="F6" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>38358</v>
       </c>
       <c r="H6" t="s">
@@ -3907,13 +4177,13 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>41580</v>
       </c>
       <c r="F7" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>37197</v>
       </c>
       <c r="H7" t="s">
@@ -3936,13 +4206,13 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>42163</v>
       </c>
       <c r="F8" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>39607</v>
       </c>
       <c r="H8" t="s">
@@ -3965,13 +4235,13 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>41922</v>
       </c>
       <c r="F9" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>37904</v>
       </c>
       <c r="H9" t="s">
@@ -3994,13 +4264,13 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>40941</v>
       </c>
       <c r="F10" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>37289</v>
       </c>
       <c r="H10" t="s">
@@ -4023,13 +4293,13 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>40336</v>
       </c>
       <c r="F11" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>33031</v>
       </c>
       <c r="H11" t="s">
@@ -4041,6 +4311,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4049,7 +4320,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\university\term 5\az db\project\2\2\Library-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F992202E-C707-476A-AB65-4CFFD11AF525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0E324B-DFD3-4F00-863E-34EAE5E0F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{E4A5B597-1B13-49BD-BC2C-758B64A3650B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{E4A5B597-1B13-49BD-BC2C-758B64A3650B}"/>
   </bookViews>
   <sheets>
     <sheet name="Book" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="238">
   <si>
     <t>bookID</t>
   </si>
@@ -1118,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD73C61-EE14-4FCF-9AAD-FA3086E46927}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1133,7 +1133,7 @@
     <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1149,8 +1149,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1166,8 +1169,11 @@
       <c r="E2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1183,8 +1189,11 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1200,8 +1209,11 @@
       <c r="E4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1217,8 +1229,11 @@
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1234,8 +1249,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1251,8 +1269,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1268,8 +1289,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1285,8 +1309,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1302,8 +1329,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1319,8 +1349,11 @@
       <c r="E11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1336,8 +1369,11 @@
       <c r="E12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1353,8 +1389,11 @@
       <c r="E13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1370,8 +1409,11 @@
       <c r="E14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1387,8 +1429,11 @@
       <c r="E15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1404,8 +1449,11 @@
       <c r="E16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1421,8 +1469,11 @@
       <c r="E17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1438,8 +1489,11 @@
       <c r="E18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1455,8 +1509,11 @@
       <c r="E19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1472,8 +1529,11 @@
       <c r="E20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1489,8 +1549,11 @@
       <c r="E21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1506,8 +1569,11 @@
       <c r="E22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1523,8 +1589,11 @@
       <c r="E23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1540,8 +1609,11 @@
       <c r="E24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1557,8 +1629,11 @@
       <c r="E25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1574,8 +1649,11 @@
       <c r="E26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1591,8 +1669,11 @@
       <c r="E27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1608,8 +1689,11 @@
       <c r="E28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1625,8 +1709,11 @@
       <c r="E29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1642,8 +1729,11 @@
       <c r="E30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1659,8 +1749,11 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1676,8 +1769,11 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1693,8 +1789,11 @@
       <c r="E33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1710,8 +1809,11 @@
       <c r="E34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1727,8 +1829,11 @@
       <c r="E35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1744,8 +1849,11 @@
       <c r="E36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1761,8 +1869,11 @@
       <c r="E37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1778,8 +1889,11 @@
       <c r="E38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1795,8 +1909,11 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1812,8 +1929,11 @@
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1828,6 +1948,9 @@
       </c>
       <c r="E41">
         <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2344,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3A6BD9-2838-4130-8135-8E8B6DE0070D}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2356,466 +2479,340 @@
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
-      <c r="C30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
-      <c r="C33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>7</v>
       </c>
-      <c r="C41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +2936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBC36CD-2135-4CFD-93D9-706557EA513D}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
